--- a/Parts/DazzelitePL.xlsx
+++ b/Parts/DazzelitePL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dazzelite\Parts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{47F08C0F-831E-4243-95D8-ED1B944682DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{860618BA-E99D-4C7A-B458-251D2984303D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2124" yWindow="1536" windowWidth="16356" windowHeight="9420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2124" yWindow="1536" windowWidth="16356" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main Assy" sheetId="2" r:id="rId1"/>
@@ -1196,7 +1196,9 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF1FE064-5139-4278-BAE9-A8FE4544DCF4}">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1370,7 +1372,7 @@
       <c r="D10" s="12"/>
       <c r="E10" s="12"/>
       <c r="F10" s="24">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G10" t="s">
         <v>37</v>
@@ -1409,7 +1411,7 @@
       <c r="E13" s="21"/>
       <c r="F13" s="7">
         <f>SUM(F4:F12)</f>
-        <v>84.269999999999982</v>
+        <v>82.269999999999982</v>
       </c>
     </row>
   </sheetData>
@@ -1422,7 +1424,7 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
